--- a/a11y-meta-display-guide/2.1/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.1/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.1/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523D3C6-4F68-C441-A55D-F022A069B57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A2A39-D439-7542-90CE-679783297AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="234">
   <si>
     <t>id</t>
   </si>
@@ -1222,7 +1222,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,11 +1255,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A89">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$191,'epub-metadata-strings'!$D$2:$D$82,'onix-metadata-strings'!$D$2:$D$79))</f>
+        <f t="array" ref="A2:A89">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$190,'epub-metadata-strings'!$D$2:$D$82,'onix-metadata-strings'!$D$2:$D$79))</f>
         <v>ways-of-reading-title</v>
       </c>
       <c r="B2" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A2&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A2&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Ways of reading</v>
       </c>
       <c r="C2" s="5" t="str">
@@ -1284,7 +1284,7 @@
         <v>ways-of-reading-visual-adjustments-modifiable</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A3&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A3&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Appearance can be modified</v>
       </c>
       <c r="C3" s="5" t="str">
@@ -1309,7 +1309,7 @@
         <v>ways-of-reading-visual-adjustments-unmodifiable</v>
       </c>
       <c r="B4" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A4&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A4&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Appearance cannot be modified</v>
       </c>
       <c r="C4" s="5" t="str">
@@ -1334,7 +1334,7 @@
         <v>ways-of-reading-visual-adjustments-unknown</v>
       </c>
       <c r="B5" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A5&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A5&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No information about appearance modifiability is available</v>
       </c>
       <c r="C5" s="5" t="str">
@@ -1359,7 +1359,7 @@
         <v>ways-of-reading-nonvisual-reading-readable</v>
       </c>
       <c r="B6" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A6&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A6&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="C6" s="5" t="str">
@@ -1384,7 +1384,7 @@
         <v>ways-of-reading-nonvisual-reading-not-fully</v>
       </c>
       <c r="B7" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A7&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A7&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C7" s="5" t="str">
@@ -1409,7 +1409,7 @@
         <v>ways-of-reading-nonvisual-reading-none</v>
       </c>
       <c r="B8" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A8&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A8&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Not readable in read aloud or dynamic braille</v>
       </c>
       <c r="C8" s="5" t="str">
@@ -1434,7 +1434,7 @@
         <v>ways-of-reading-nonvisual-reading-no-metadata</v>
       </c>
       <c r="B9" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A9&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A9&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No information about nonvisual reading is available</v>
       </c>
       <c r="C9" s="5" t="str">
@@ -1459,7 +1459,7 @@
         <v>ways-of-reading-nonvisual-reading-alt-text</v>
       </c>
       <c r="B10" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A10&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A10&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Has alternative text</v>
       </c>
       <c r="C10" s="5" t="str">
@@ -1484,7 +1484,7 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata</v>
       </c>
       <c r="B11" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A11&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A11&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No information about prerecorded audio is available</v>
       </c>
       <c r="C11" s="5" t="str">
@@ -1509,7 +1509,7 @@
         <v>ways-of-reading-prerecorded-audio-only</v>
       </c>
       <c r="B12" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A12&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A12&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Prerecorded audio only</v>
       </c>
       <c r="C12" s="5" t="str">
@@ -1534,7 +1534,7 @@
         <v>ways-of-reading-prerecorded-audio-synchronized</v>
       </c>
       <c r="B13" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A13&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A13&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="C13" s="5" t="str">
@@ -1559,7 +1559,7 @@
         <v>ways-of-reading-prerecorded-audio-complementary</v>
       </c>
       <c r="B14" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A14&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A14&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Prerecorded audio clips</v>
       </c>
       <c r="C14" s="5" t="str">
@@ -1584,7 +1584,7 @@
         <v>conformance-title</v>
       </c>
       <c r="B15" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A15&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A15&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Conformance</v>
       </c>
       <c r="C15" s="5" t="str">
@@ -1609,7 +1609,7 @@
         <v>conformance-a</v>
       </c>
       <c r="B16" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A16&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A16&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="C16" s="5" t="str">
@@ -1634,7 +1634,7 @@
         <v>conformance-aa</v>
       </c>
       <c r="B17" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A17&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A17&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="C17" s="5" t="str">
@@ -1659,7 +1659,7 @@
         <v>conformance-aaa</v>
       </c>
       <c r="B18" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A18&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A18&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="C18" s="5" t="str">
@@ -1684,7 +1684,7 @@
         <v>conformance-no</v>
       </c>
       <c r="B19" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A19&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A19&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C19" s="5" t="str">
@@ -1709,8 +1709,8 @@
         <v>conformance-certifier</v>
       </c>
       <c r="B20" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A20&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <f>IFERROR(VLOOKUP($A20&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
+        <v>The publication was certified by {certifier}</v>
       </c>
       <c r="C20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$978,2,FALSE),"")</f>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="D20" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$982,2,FALSE),"")</f>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="F20" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1734,8 +1734,8 @@
         <v>conformance-certifier-credentials</v>
       </c>
       <c r="B21" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A21&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <f>IFERROR(VLOOKUP($A21&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
+        <v>The certifier's credential is {certifier_credentials}</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$978,2,FALSE),"")</f>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D21" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$982,2,FALSE),"")</f>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="F21" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1759,8 +1759,8 @@
         <v>conformance-details-claim</v>
       </c>
       <c r="B22" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A22&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <f>IFERROR(VLOOKUP($A22&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
+        <v>This publication claims to meet {epub_accessibility} {wcag_version} {wcag_level}</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$978,2,FALSE),"")</f>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="D22" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$982,2,FALSE),"")</f>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F22" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1784,7 +1784,7 @@
         <v>conformance-details-wcag-2-0</v>
       </c>
       <c r="B23" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A23&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A23&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C23" s="5" t="str">
@@ -1809,7 +1809,7 @@
         <v>conformance-details-wcag-2-1</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A24&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A24&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>WCAG 2.1</v>
       </c>
       <c r="C24" s="5" t="str">
@@ -1834,7 +1834,7 @@
         <v>conformance-details-wcag-2-2</v>
       </c>
       <c r="B25" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A25&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A25&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C25" s="5" t="str">
@@ -1859,8 +1859,8 @@
         <v>conformance-details-certification-info</v>
       </c>
       <c r="B26" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A26&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication was certified on</v>
+        <f>IFERROR(VLOOKUP($A26&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
+        <v>The publication was certified on {certification_date}</v>
       </c>
       <c r="C26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$978,2,FALSE),"")</f>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D26" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$982,2,FALSE),"")</f>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="F26" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1884,7 +1884,7 @@
         <v>conformance-details-certifier-report</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A27&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A27&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>For more information refer to the certifier's report</v>
       </c>
       <c r="C27" s="5" t="str">
@@ -1909,7 +1909,7 @@
         <v>conformance-details-title</v>
       </c>
       <c r="B28" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A28&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A28&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Detailed conformance information</v>
       </c>
       <c r="C28" s="5" t="str">
@@ -1934,7 +1934,7 @@
         <v>conformance-details-epub-accessibility-1-1</v>
       </c>
       <c r="B29" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A29&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A29&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="C29" s="5" t="str">
@@ -1959,7 +1959,7 @@
         <v>conformance-details-level-aa</v>
       </c>
       <c r="B30" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A30&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A30&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Level AA</v>
       </c>
       <c r="C30" s="5" t="str">
@@ -1984,7 +1984,7 @@
         <v>navigation-title</v>
       </c>
       <c r="B31" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A31&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A31&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Navigation</v>
       </c>
       <c r="C31" s="5" t="str">
@@ -2009,7 +2009,7 @@
         <v>navigation-no-metadata</v>
       </c>
       <c r="B32" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A32&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A32&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C32" s="5" t="str">
@@ -2034,7 +2034,7 @@
         <v>navigation-toc</v>
       </c>
       <c r="B33" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A33&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A33&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Table of contents</v>
       </c>
       <c r="C33" s="5" t="str">
@@ -2059,7 +2059,7 @@
         <v>navigation-index</v>
       </c>
       <c r="B34" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A34&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A34&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Index</v>
       </c>
       <c r="C34" s="5" t="str">
@@ -2084,7 +2084,7 @@
         <v>navigation-structural</v>
       </c>
       <c r="B35" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A35&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A35&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Headings</v>
       </c>
       <c r="C35" s="5" t="str">
@@ -2109,7 +2109,7 @@
         <v>navigation-page-navigation</v>
       </c>
       <c r="B36" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A36&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A36&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Go to page</v>
       </c>
       <c r="C36" s="5" t="str">
@@ -2134,7 +2134,7 @@
         <v>rich-content-title</v>
       </c>
       <c r="B37" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A37&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A37&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Rich content</v>
       </c>
       <c r="C37" s="5" t="str">
@@ -2159,7 +2159,7 @@
         <v>rich-content-unknown</v>
       </c>
       <c r="B38" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A38&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A38&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C38" s="5" t="str">
@@ -2184,7 +2184,7 @@
         <v>rich-content-accessible-math-as-mathml</v>
       </c>
       <c r="B39" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A39&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A39&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Math as MathML</v>
       </c>
       <c r="C39" s="5" t="str">
@@ -2209,7 +2209,7 @@
         <v>rich-content-accessible-math-as-latex</v>
       </c>
       <c r="B40" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A40&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A40&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Math as LaTeX</v>
       </c>
       <c r="C40" s="5" t="str">
@@ -2234,7 +2234,7 @@
         <v>rich-content-accessible-math-described</v>
       </c>
       <c r="B41" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A41&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A41&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Text descriptions of math are provided</v>
       </c>
       <c r="C41" s="5" t="str">
@@ -2259,7 +2259,7 @@
         <v>rich-content-accessible-chemistry-as-mathml</v>
       </c>
       <c r="B42" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A42&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A42&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Chemical formulas in MathML</v>
       </c>
       <c r="C42" s="5" t="str">
@@ -2284,7 +2284,7 @@
         <v>rich-content-accessible-chemistry-as-latex</v>
       </c>
       <c r="B43" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A43&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A43&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Chemical formulas in LaTeX</v>
       </c>
       <c r="C43" s="5" t="str">
@@ -2309,7 +2309,7 @@
         <v>rich-content-extended</v>
       </c>
       <c r="B44" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A44&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A44&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="C44" s="5" t="str">
@@ -2334,7 +2334,7 @@
         <v>rich-content-closed-captions</v>
       </c>
       <c r="B45" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A45&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A45&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Videos have closed captions</v>
       </c>
       <c r="C45" s="5" t="str">
@@ -2359,7 +2359,7 @@
         <v>rich-content-open-captions</v>
       </c>
       <c r="B46" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A46&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A46&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Videos have open captions</v>
       </c>
       <c r="C46" s="5" t="str">
@@ -2384,7 +2384,7 @@
         <v>rich-content-transcript</v>
       </c>
       <c r="B47" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A47&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A47&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Transcript(s) provided</v>
       </c>
       <c r="C47" s="5" t="str">
@@ -2409,7 +2409,7 @@
         <v>hazards-title</v>
       </c>
       <c r="B48" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A48&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A48&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Hazards</v>
       </c>
       <c r="C48" s="5" t="str">
@@ -2434,7 +2434,7 @@
         <v>hazards-no-metadata</v>
       </c>
       <c r="B49" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A49&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A49&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C49" s="5" t="str">
@@ -2459,7 +2459,7 @@
         <v>hazards-none</v>
       </c>
       <c r="B50" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A50&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A50&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No hazards</v>
       </c>
       <c r="C50" s="5" t="str">
@@ -2484,7 +2484,7 @@
         <v>hazards-unknown</v>
       </c>
       <c r="B51" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A51&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A51&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>The presence of hazards is unknown</v>
       </c>
       <c r="C51" s="5" t="str">
@@ -2509,7 +2509,7 @@
         <v>hazards-flashing</v>
       </c>
       <c r="B52" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A52&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A52&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Flashing content</v>
       </c>
       <c r="C52" s="5" t="str">
@@ -2534,7 +2534,7 @@
         <v>hazards-flashing-none</v>
       </c>
       <c r="B53" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A53&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A53&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No flashing hazards</v>
       </c>
       <c r="C53" s="5" t="str">
@@ -2559,7 +2559,7 @@
         <v>hazards-flashing-unknown</v>
       </c>
       <c r="B54" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A54&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A54&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Flashing hazards not known</v>
       </c>
       <c r="C54" s="5" t="str">
@@ -2584,7 +2584,7 @@
         <v>hazards-motion</v>
       </c>
       <c r="B55" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A55&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A55&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Motion simulation</v>
       </c>
       <c r="C55" s="5" t="str">
@@ -2609,7 +2609,7 @@
         <v>hazards-motion-none</v>
       </c>
       <c r="B56" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A56&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A56&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No motion simulation hazards</v>
       </c>
       <c r="C56" s="5" t="str">
@@ -2634,7 +2634,7 @@
         <v>hazards-motion-unknown</v>
       </c>
       <c r="B57" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A57&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A57&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Motion simulation hazards not known</v>
       </c>
       <c r="C57" s="5" t="str">
@@ -2659,7 +2659,7 @@
         <v>hazards-sound</v>
       </c>
       <c r="B58" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A58&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A58&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Sounds</v>
       </c>
       <c r="C58" s="5" t="str">
@@ -2684,7 +2684,7 @@
         <v>hazards-sound-none</v>
       </c>
       <c r="B59" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A59&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A59&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No sound hazards</v>
       </c>
       <c r="C59" s="5" t="str">
@@ -2709,7 +2709,7 @@
         <v>hazards-sound-unknown</v>
       </c>
       <c r="B60" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A60&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A60&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Sound hazards not known</v>
       </c>
       <c r="C60" s="5" t="str">
@@ -2734,7 +2734,7 @@
         <v>accessibility-summary-title</v>
       </c>
       <c r="B61" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A61&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A61&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Accessibility summary</v>
       </c>
       <c r="C61" s="5" t="str">
@@ -2759,7 +2759,7 @@
         <v>accessibility-summary-no-metadata</v>
       </c>
       <c r="B62" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A62&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A62&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C62" s="5" t="str">
@@ -2784,7 +2784,7 @@
         <v>legal-considerations-title</v>
       </c>
       <c r="B63" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A63&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A63&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Legal considerations</v>
       </c>
       <c r="C63" s="5" t="str">
@@ -2809,7 +2809,7 @@
         <v>legal-considerations-exempt</v>
       </c>
       <c r="B64" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A64&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A64&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="C64" s="5" t="str">
@@ -2834,7 +2834,7 @@
         <v>legal-considerations-no-metadata</v>
       </c>
       <c r="B65" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A65&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A65&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C65" s="5" t="str">
@@ -2859,7 +2859,7 @@
         <v>additional-accessibility-information-title</v>
       </c>
       <c r="B66" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A66&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A66&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Additional accessibility information</v>
       </c>
       <c r="C66" s="5" t="str">
@@ -2884,7 +2884,7 @@
         <v>additional-accessibility-information-aria</v>
       </c>
       <c r="B67" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A67&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A67&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>ARIA roles included</v>
       </c>
       <c r="C67" s="5" t="str">
@@ -2909,7 +2909,7 @@
         <v>additional-accessibility-information-page-breaks</v>
       </c>
       <c r="B68" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A68&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A68&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Page breaks included</v>
       </c>
       <c r="C68" s="5" t="str">
@@ -2934,7 +2934,7 @@
         <v>additional-accessibility-information-tactile-graphics</v>
       </c>
       <c r="B69" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A69&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A69&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v>Tactile graphics included</v>
       </c>
       <c r="C69" s="5" t="str">
@@ -2959,7 +2959,7 @@
         <v>conformance-unknown-standard</v>
       </c>
       <c r="B70" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A70&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A70&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C70" s="5" t="str">
@@ -2984,7 +2984,7 @@
         <v>conformance-details-epub-accessibility-1-0</v>
       </c>
       <c r="B71" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A71&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A71&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C71" s="5" t="str">
@@ -3009,7 +3009,7 @@
         <v>conformance-details-level-aaa</v>
       </c>
       <c r="B72" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A72&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A72&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C72" s="5" t="str">
@@ -3034,7 +3034,7 @@
         <v>conformance-details-level-a</v>
       </c>
       <c r="B73" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A73&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A73&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C73" s="5" t="str">
@@ -3059,7 +3059,7 @@
         <v>additional-accessibility-information-audio-descriptions</v>
       </c>
       <c r="B74" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A74&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A74&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C74" s="5" t="str">
@@ -3084,7 +3084,7 @@
         <v>additional-accessibility-information-braille</v>
       </c>
       <c r="B75" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A75&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A75&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C75" s="5" t="str">
@@ -3109,7 +3109,7 @@
         <v>additional-accessibility-information-full-ruby-annotations</v>
       </c>
       <c r="B76" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A76&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A76&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C76" s="5" t="str">
@@ -3134,7 +3134,7 @@
         <v>additional-accessibility-information-high-contrast-between-foreground-and-background-audio</v>
       </c>
       <c r="B77" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A77&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A77&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C77" s="5" t="str">
@@ -3159,7 +3159,7 @@
         <v>additional-accessibility-information-high-contrast-between-text-and-background</v>
       </c>
       <c r="B78" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A78&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A78&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C78" s="5" t="str">
@@ -3184,7 +3184,7 @@
         <v>additional-accessibility-information-large-print</v>
       </c>
       <c r="B79" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A79&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A79&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C79" s="5" t="str">
@@ -3209,7 +3209,7 @@
         <v>additional-accessibility-information-ruby-annotations</v>
       </c>
       <c r="B80" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A80&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A80&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C80" s="5" t="str">
@@ -3234,7 +3234,7 @@
         <v>additional-accessibility-information-sign-language</v>
       </c>
       <c r="B81" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A81&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A81&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C81" s="5" t="str">
@@ -3259,7 +3259,7 @@
         <v>additional-accessibility-information-tactile-objects</v>
       </c>
       <c r="B82" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A82&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A82&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C82" s="5" t="str">
@@ -3284,7 +3284,7 @@
         <v>additional-accessibility-information-text-to-speech-hinting</v>
       </c>
       <c r="B83" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A83&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A83&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C83" s="5" t="str">
@@ -3309,7 +3309,7 @@
         <v>accessibility-summary-publisher-contact</v>
       </c>
       <c r="B84" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A84&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A84&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C84" s="5" t="str">
@@ -3334,7 +3334,7 @@
         <v>additional-accessibility-information-color-not-sole-means-of-conveying-information</v>
       </c>
       <c r="B85" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A85&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A85&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C85" s="5" t="str">
@@ -3359,7 +3359,7 @@
         <v>additional-accessibility-information-dyslexia-readability</v>
       </c>
       <c r="B86" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A86&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A86&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C86" s="5" t="str">
@@ -3378,7 +3378,7 @@
         <v>additional-accessibility-information-ultra-high-contrast-between-text-and-background</v>
       </c>
       <c r="B87" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A87&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A87&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C87" s="5" t="str">
@@ -3397,7 +3397,7 @@
         <v>additional-accessibility-information-visible-page-numbering</v>
       </c>
       <c r="B88" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A88&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A88&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C88" s="5" t="str">
@@ -3416,7 +3416,7 @@
         <v>additional-accessibility-information-without-background-sounds</v>
       </c>
       <c r="B89" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A89&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A89&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C89" s="5" t="str">
@@ -3432,7 +3432,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B90" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A90&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A90&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C90" s="5" t="str">
@@ -3448,7 +3448,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A91&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A91&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C91" s="5" t="str">
@@ -3464,7 +3464,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A92&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A92&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C92" s="5" t="str">
@@ -3480,7 +3480,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A93&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A93&amp;"-compact",'guidelines-string'!$A$2:$G$999,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C93" s="5" t="str">
@@ -3754,15 +3754,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4764,7 +4765,7 @@
         <v>57</v>
       </c>
       <c r="G56" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4782,7 +4783,7 @@
         <v>57</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -4800,571 +4801,571 @@
         <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-claim-descriptive</v>
+        <v>conformance-details-wcag-2-0-descriptive</v>
       </c>
       <c r="D59" t="s">
         <v>43</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F59" t="s">
         <v>56</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-wcag-2-0-descriptive</v>
+        <v>conformance-details-wcag-2-1-descriptive</v>
       </c>
       <c r="D60" t="s">
         <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F60" t="s">
         <v>56</v>
       </c>
       <c r="G60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-wcag-2-1-descriptive</v>
+        <v>conformance-details-wcag-2-2-descriptive</v>
       </c>
       <c r="D61" t="s">
         <v>43</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F61" t="s">
         <v>56</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-wcag-2-2-descriptive</v>
+        <v>conformance-details-certification-info-compact</v>
       </c>
       <c r="D62" t="s">
         <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-certification-info-compact</v>
+        <v>conformance-details-certifier-report-compact</v>
       </c>
       <c r="D63" t="s">
         <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F63" t="s">
         <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-certifier-report-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D64" t="s">
         <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
-      </c>
-      <c r="F64" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D65" t="s">
         <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D66" t="s">
         <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
         <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" ref="A67:A130" si="1">E67&amp;"-"&amp;IF(ISBLANK(F67),"compact",F67)</f>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
         <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-details-title-compact</v>
       </c>
       <c r="D68" t="s">
         <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-title-compact</v>
+        <v>conformance-details-claim-compact</v>
       </c>
       <c r="D69" t="s">
         <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="F69" t="s">
+        <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-claim-compact</v>
+        <v>conformance-details-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D70" t="s">
         <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F70" t="s">
         <v>57</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-epub-accessibility-1-1-compact</v>
+        <v>conformance-details-wcag-2-1-compact</v>
       </c>
       <c r="D71" t="s">
         <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F71" t="s">
         <v>57</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-wcag-2-1-compact</v>
+        <v>conformance-details-level-aa-compact</v>
       </c>
       <c r="D72" t="s">
         <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F72" t="s">
         <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-level-aa-compact</v>
+        <v>conformance-details-certification-info-compact</v>
       </c>
       <c r="D73" t="s">
         <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F73" t="s">
         <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-certification-info-compact</v>
+        <v>conformance-details-certifier-report-compact</v>
       </c>
       <c r="D74" t="s">
         <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F74" t="s">
         <v>57</v>
       </c>
       <c r="G74" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-certifier-report-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D75" t="s">
         <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
-      </c>
-      <c r="F75" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-aa-descriptive</v>
       </c>
       <c r="D76" t="s">
         <v>43</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-aa-descriptive</v>
+        <v>conformance-certifier-descriptive</v>
       </c>
       <c r="D77" t="s">
         <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
         <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-descriptive</v>
+        <v>conformance-certifier-credentials-descriptive</v>
       </c>
       <c r="D78" t="s">
         <v>43</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
         <v>56</v>
       </c>
       <c r="G78" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-credentials-descriptive</v>
+        <v>conformance-details-title-compact</v>
       </c>
       <c r="D79" t="s">
         <v>43</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-title-compact</v>
+        <v>conformance-details-claim-descriptive</v>
       </c>
       <c r="D80" t="s">
         <v>43</v>
       </c>
       <c r="E80" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="F80" t="s">
+        <v>56</v>
       </c>
       <c r="G80" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-claim-descriptive</v>
+        <v>conformance-details-epub-accessibility-1-1-descriptive</v>
       </c>
       <c r="D81" t="s">
         <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F81" t="s">
         <v>56</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-epub-accessibility-1-1-descriptive</v>
+        <v>conformance-details-wcag-2-1-descriptive</v>
       </c>
       <c r="D82" t="s">
         <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F82" t="s">
         <v>56</v>
       </c>
       <c r="G82" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-wcag-2-1-descriptive</v>
+        <v>conformance-details-level-aa-descriptive</v>
       </c>
       <c r="D83" t="s">
         <v>43</v>
       </c>
       <c r="E83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F83" t="s">
         <v>56</v>
       </c>
       <c r="G83" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-level-aa-descriptive</v>
+        <v>conformance-details-certification-info-descriptive</v>
       </c>
       <c r="D84" t="s">
         <v>43</v>
       </c>
       <c r="E84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F84" t="s">
         <v>56</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-certification-info-descriptive</v>
+        <v>conformance-details-certifier-report-descriptive</v>
       </c>
       <c r="D85" t="s">
         <v>43</v>
       </c>
       <c r="E85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F85" t="s">
         <v>56</v>
       </c>
       <c r="G85" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-certifier-report-descriptive</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D86" t="s">
         <v>43</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
-      </c>
-      <c r="F86" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D87" t="s">
         <v>43</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-no-compact</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D88" t="s">
         <v>43</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D89" t="s">
         <v>43</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="F89" t="s">
+        <v>56</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>navigation-toc-compact</v>
       </c>
       <c r="D90" t="s">
         <v>43</v>
       </c>
       <c r="E90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-compact</v>
+        <v>navigation-toc-descriptive</v>
       </c>
       <c r="D91" t="s">
         <v>43</v>
@@ -5373,34 +5374,34 @@
         <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G91" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-descriptive</v>
+        <v>navigation-index-compact</v>
       </c>
       <c r="D92" t="s">
         <v>43</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G92" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-compact</v>
+        <v>navigation-index-descriptive</v>
       </c>
       <c r="D93" t="s">
         <v>43</v>
@@ -5409,34 +5410,34 @@
         <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G93" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-descriptive</v>
+        <v>navigation-structural-compact</v>
       </c>
       <c r="D94" t="s">
         <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G94" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-compact</v>
+        <v>navigation-structural-descriptive</v>
       </c>
       <c r="D95" t="s">
         <v>43</v>
@@ -5445,34 +5446,34 @@
         <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G95" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-descriptive</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D96" t="s">
         <v>43</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G96" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D97" t="s">
         <v>43</v>
@@ -5481,34 +5482,34 @@
         <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G97" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-descriptive</v>
+        <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D98" t="s">
         <v>43</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G98" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-compact</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D99" t="s">
         <v>43</v>
@@ -5517,7 +5518,7 @@
         <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G99" t="s">
         <v>75</v>
@@ -5526,160 +5527,160 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D100" t="s">
         <v>43</v>
       </c>
       <c r="E100" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-toc-compact</v>
       </c>
       <c r="D101" t="s">
         <v>43</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="F101" t="s">
+        <v>57</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-compact</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D102" t="s">
         <v>43</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F102" t="s">
         <v>57</v>
       </c>
       <c r="G102" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D103" t="s">
         <v>43</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G103" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-toc-descriptive</v>
       </c>
       <c r="D104" t="s">
         <v>43</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="F104" t="s">
+        <v>56</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-descriptive</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D105" t="s">
         <v>43</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G105" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D106" t="s">
         <v>43</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G106" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D107" t="s">
         <v>43</v>
       </c>
       <c r="E107" t="s">
-        <v>115</v>
+        <v>94</v>
+      </c>
+      <c r="F107" t="s">
+        <v>56</v>
       </c>
       <c r="G107" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D108" t="s">
         <v>43</v>
       </c>
       <c r="E108" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G108" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-compact</v>
+        <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D109" t="s">
         <v>43</v>
@@ -5688,34 +5689,34 @@
         <v>95</v>
       </c>
       <c r="F109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G109" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-descriptive</v>
+        <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D110" t="s">
         <v>43</v>
       </c>
       <c r="E110" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G110" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-compact</v>
+        <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D111" t="s">
         <v>43</v>
@@ -5724,34 +5725,34 @@
         <v>97</v>
       </c>
       <c r="F111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-descriptive</v>
+        <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D112" t="s">
         <v>43</v>
       </c>
       <c r="E112" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G112" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-compact</v>
+        <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D113" t="s">
         <v>43</v>
@@ -5760,7 +5761,7 @@
         <v>98</v>
       </c>
       <c r="F113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G113" t="s">
         <v>156</v>
@@ -5769,25 +5770,25 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D114" t="s">
         <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G114" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
+        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D115" t="s">
         <v>43</v>
@@ -5796,34 +5797,34 @@
         <v>99</v>
       </c>
       <c r="F115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G115" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D116" t="s">
         <v>43</v>
       </c>
       <c r="E116" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G116" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-latex-compact</v>
+        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D117" t="s">
         <v>43</v>
@@ -5832,34 +5833,34 @@
         <v>101</v>
       </c>
       <c r="F117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
+        <v>rich-content-extended-compact</v>
       </c>
       <c r="D118" t="s">
         <v>43</v>
       </c>
       <c r="E118" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G118" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-compact</v>
+        <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D119" t="s">
         <v>43</v>
@@ -5868,7 +5869,7 @@
         <v>102</v>
       </c>
       <c r="F119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G119" t="s">
         <v>103</v>
@@ -5877,25 +5878,25 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-descriptive</v>
+        <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D120" t="s">
         <v>43</v>
       </c>
       <c r="E120" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G120" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-compact</v>
+        <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D121" t="s">
         <v>43</v>
@@ -5904,34 +5905,34 @@
         <v>116</v>
       </c>
       <c r="F121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G121" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-descriptive</v>
+        <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D122" t="s">
         <v>43</v>
       </c>
       <c r="E122" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G122" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-compact</v>
+        <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D123" t="s">
         <v>43</v>
@@ -5940,34 +5941,34 @@
         <v>117</v>
       </c>
       <c r="F123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G123" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-descriptive</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D124" t="s">
         <v>43</v>
       </c>
       <c r="E124" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G124" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-compact</v>
+        <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D125" t="s">
         <v>43</v>
@@ -5976,7 +5977,7 @@
         <v>118</v>
       </c>
       <c r="F125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G125" t="s">
         <v>157</v>
@@ -5985,25 +5986,25 @@
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-descriptive</v>
+        <v>rich-content-unknown-compact</v>
       </c>
       <c r="D126" t="s">
         <v>43</v>
       </c>
       <c r="E126" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G126" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-compact</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D127" t="s">
         <v>43</v>
@@ -6012,7 +6013,7 @@
         <v>94</v>
       </c>
       <c r="F127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G127" t="s">
         <v>75</v>
@@ -6021,196 +6022,196 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D128" t="s">
         <v>43</v>
       </c>
       <c r="E128" t="s">
-        <v>94</v>
-      </c>
-      <c r="F128" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="G128" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D129" t="s">
         <v>43</v>
       </c>
       <c r="E129" t="s">
-        <v>115</v>
+        <v>95</v>
+      </c>
+      <c r="F129" t="s">
+        <v>57</v>
       </c>
       <c r="G129" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-compact</v>
+        <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D130" t="s">
         <v>43</v>
       </c>
       <c r="E130" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F130" t="s">
         <v>57</v>
       </c>
       <c r="G130" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
-        <f t="shared" ref="A131:A191" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
-        <v>rich-content-closed-captions-compact</v>
+        <f t="shared" ref="A131:A190" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D131" t="s">
         <v>43</v>
       </c>
       <c r="E131" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F131" t="s">
         <v>57</v>
       </c>
       <c r="G131" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>rich-content-transcript-compact</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D132" t="s">
         <v>43</v>
       </c>
       <c r="E132" t="s">
-        <v>118</v>
-      </c>
-      <c r="F132" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G132" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>rich-content-title-compact</v>
+        <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D133" t="s">
         <v>43</v>
       </c>
       <c r="E133" t="s">
-        <v>115</v>
+        <v>95</v>
+      </c>
+      <c r="F133" t="s">
+        <v>56</v>
       </c>
       <c r="G133" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>rich-content-accessible-math-as-mathml-descriptive</v>
+        <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D134" t="s">
         <v>43</v>
       </c>
       <c r="E134" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F134" t="s">
         <v>56</v>
       </c>
       <c r="G134" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>rich-content-closed-captions-descriptive</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D135" t="s">
         <v>43</v>
       </c>
       <c r="E135" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G135" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>rich-content-transcript-compact</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D136" t="s">
         <v>43</v>
       </c>
       <c r="E136" t="s">
-        <v>118</v>
-      </c>
-      <c r="F136" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G136" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-title-compact</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D137" t="s">
         <v>43</v>
       </c>
       <c r="E137" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="F137" t="s">
+        <v>56</v>
       </c>
       <c r="G137" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-no-metadata-descriptive</v>
+        <v>hazards-none-compact</v>
       </c>
       <c r="D138" t="s">
         <v>43</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G138" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-none-compact</v>
+        <v>hazards-none-descriptive</v>
       </c>
       <c r="D139" t="s">
         <v>43</v>
@@ -6219,34 +6220,34 @@
         <v>27</v>
       </c>
       <c r="F139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G139" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-none-descriptive</v>
+        <v>hazards-unknown-compact</v>
       </c>
       <c r="D140" t="s">
         <v>43</v>
       </c>
       <c r="E140" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G140" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-unknown-compact</v>
+        <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D141" t="s">
         <v>43</v>
@@ -6255,7 +6256,7 @@
         <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G141" t="s">
         <v>73</v>
@@ -6264,25 +6265,25 @@
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-unknown-descriptive</v>
+        <v>hazards-flashing-compact</v>
       </c>
       <c r="D142" t="s">
         <v>43</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G142" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-flashing-compact</v>
+        <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D143" t="s">
         <v>43</v>
@@ -6291,34 +6292,34 @@
         <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G143" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-flashing-descriptive</v>
+        <v>hazards-flashing-none-compact</v>
       </c>
       <c r="D144" t="s">
         <v>43</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="F144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G144" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-flashing-none-compact</v>
+        <v>hazards-flashing-none-descriptive</v>
       </c>
       <c r="D145" t="s">
         <v>43</v>
@@ -6327,34 +6328,34 @@
         <v>210</v>
       </c>
       <c r="F145" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G145" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-flashing-none-descriptive</v>
+        <v>hazards-flashing-unknown-compact</v>
       </c>
       <c r="D146" t="s">
         <v>43</v>
       </c>
       <c r="E146" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G146" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-flashing-unknown-compact</v>
+        <v>hazards-flashing-unknown-descriptive</v>
       </c>
       <c r="D147" t="s">
         <v>43</v>
@@ -6363,34 +6364,34 @@
         <v>204</v>
       </c>
       <c r="F147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G147" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-flashing-unknown-descriptive</v>
+        <v>hazards-motion-compact</v>
       </c>
       <c r="D148" t="s">
         <v>43</v>
       </c>
       <c r="E148" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G148" t="s">
-        <v>222</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-motion-compact</v>
+        <v>hazards-motion-descriptive</v>
       </c>
       <c r="D149" t="s">
         <v>43</v>
@@ -6399,34 +6400,34 @@
         <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G149" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-motion-descriptive</v>
+        <v>hazards-motion-none-compact</v>
       </c>
       <c r="D150" t="s">
         <v>43</v>
       </c>
       <c r="E150" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G150" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-motion-none-compact</v>
+        <v>hazards-motion-none-descriptive</v>
       </c>
       <c r="D151" t="s">
         <v>43</v>
@@ -6435,34 +6436,34 @@
         <v>212</v>
       </c>
       <c r="F151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G151" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-motion-none-descriptive</v>
+        <v>hazards-motion-unknown-compact</v>
       </c>
       <c r="D152" t="s">
         <v>43</v>
       </c>
       <c r="E152" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G152" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-motion-unknown-compact</v>
+        <v>hazards-motion-unknown-descriptive</v>
       </c>
       <c r="D153" t="s">
         <v>43</v>
@@ -6471,34 +6472,34 @@
         <v>206</v>
       </c>
       <c r="F153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G153" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-motion-unknown-descriptive</v>
+        <v>hazards-sound-compact</v>
       </c>
       <c r="D154" t="s">
         <v>43</v>
       </c>
       <c r="E154" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G154" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-sound-compact</v>
+        <v>hazards-sound-descriptive</v>
       </c>
       <c r="D155" t="s">
         <v>43</v>
@@ -6507,34 +6508,34 @@
         <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G155" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-sound-descriptive</v>
+        <v>hazards-sound-none-compact</v>
       </c>
       <c r="D156" t="s">
         <v>43</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G156" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-sound-none-compact</v>
+        <v>hazards-sound-none-descriptive</v>
       </c>
       <c r="D157" t="s">
         <v>43</v>
@@ -6543,34 +6544,34 @@
         <v>214</v>
       </c>
       <c r="F157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G157" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-sound-none-descriptive</v>
+        <v>hazards-sound-unknown-compact</v>
       </c>
       <c r="D158" t="s">
         <v>43</v>
       </c>
       <c r="E158" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G158" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-sound-unknown-compact</v>
+        <v>hazards-sound-unknown-descriptive</v>
       </c>
       <c r="D159" t="s">
         <v>43</v>
@@ -6579,34 +6580,34 @@
         <v>208</v>
       </c>
       <c r="F159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G159" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-sound-unknown-descriptive</v>
+        <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D160" t="s">
         <v>43</v>
       </c>
       <c r="E160" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G160" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-no-metadata-compact</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D161" t="s">
         <v>43</v>
@@ -6615,7 +6616,7 @@
         <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G161" t="s">
         <v>75</v>
@@ -6624,154 +6625,154 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-no-metadata-descriptive</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D162" t="s">
         <v>43</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
-      </c>
-      <c r="F162" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G162" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-title-compact</v>
+        <v>hazards-none-compact</v>
       </c>
       <c r="D163" t="s">
         <v>43</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="F163" t="s">
+        <v>57</v>
       </c>
       <c r="G163" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-none-compact</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D164" t="s">
         <v>43</v>
       </c>
       <c r="E164" t="s">
-        <v>27</v>
-      </c>
-      <c r="F164" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G164" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-title-compact</v>
+        <v>hazards-none-descriptive</v>
       </c>
       <c r="D165" t="s">
         <v>43</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="F165" t="s">
+        <v>56</v>
       </c>
       <c r="G165" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-none-descriptive</v>
+        <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D166" t="s">
         <v>43</v>
       </c>
       <c r="E166" t="s">
-        <v>27</v>
-      </c>
-      <c r="F166" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G166" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>accessibility-summary-no-metadata-compact</v>
       </c>
       <c r="D167" t="s">
         <v>43</v>
       </c>
       <c r="E167" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="F167" t="s">
+        <v>57</v>
       </c>
       <c r="G167" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-no-metadata-compact</v>
+        <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D168" t="s">
         <v>43</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
-      </c>
-      <c r="F168" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G168" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>legal-considerations-title-compact</v>
       </c>
       <c r="D169" t="s">
         <v>43</v>
       </c>
       <c r="E169" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G169" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-title-compact</v>
+        <v>legal-considerations-exempt-compact</v>
       </c>
       <c r="D170" t="s">
         <v>43</v>
       </c>
       <c r="E170" t="s">
-        <v>58</v>
+        <v>113</v>
+      </c>
+      <c r="F170" t="s">
+        <v>57</v>
       </c>
       <c r="G170" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-compact</v>
+        <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D171" t="s">
         <v>43</v>
@@ -6780,34 +6781,34 @@
         <v>113</v>
       </c>
       <c r="F171" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G171" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-descriptive</v>
+        <v>legal-considerations-no-metadata-compact</v>
       </c>
       <c r="D172" t="s">
         <v>43</v>
       </c>
       <c r="E172" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G172" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-no-metadata-compact</v>
+        <v>legal-considerations-no-metadata-descriptive</v>
       </c>
       <c r="D173" t="s">
         <v>43</v>
@@ -6816,7 +6817,7 @@
         <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G173" t="s">
         <v>75</v>
@@ -6825,106 +6826,106 @@
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-no-metadata-descriptive</v>
+        <v>legal-considerations-title-compact</v>
       </c>
       <c r="D174" t="s">
         <v>43</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
-      </c>
-      <c r="F174" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G174" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-title-compact</v>
+        <v>legal-considerations-exempt-compact</v>
       </c>
       <c r="D175" t="s">
         <v>43</v>
       </c>
       <c r="E175" t="s">
-        <v>58</v>
+        <v>113</v>
+      </c>
+      <c r="F175" t="s">
+        <v>57</v>
       </c>
       <c r="G175" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-compact</v>
+        <v>legal-considerations-title-compact</v>
       </c>
       <c r="D176" t="s">
         <v>43</v>
       </c>
       <c r="E176" t="s">
-        <v>113</v>
-      </c>
-      <c r="F176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G176" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-title-compact</v>
+        <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D177" t="s">
         <v>43</v>
       </c>
       <c r="E177" t="s">
-        <v>58</v>
+        <v>113</v>
+      </c>
+      <c r="F177" t="s">
+        <v>56</v>
       </c>
       <c r="G177" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-descriptive</v>
+        <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D178" t="s">
         <v>43</v>
       </c>
       <c r="E178" t="s">
-        <v>113</v>
-      </c>
-      <c r="F178" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G178" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>additional-accessibility-information-aria-compact</v>
       </c>
       <c r="D179" t="s">
         <v>43</v>
       </c>
       <c r="E179" t="s">
-        <v>52</v>
+        <v>177</v>
+      </c>
+      <c r="F179" t="s">
+        <v>57</v>
       </c>
       <c r="G179" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-aria-compact</v>
+        <v>additional-accessibility-information-aria-descriptive</v>
       </c>
       <c r="D180" t="s">
         <v>43</v>
@@ -6933,34 +6934,34 @@
         <v>177</v>
       </c>
       <c r="F180" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G180" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-aria-descriptive</v>
+        <v>additional-accessibility-information-page-breaks-compact</v>
       </c>
       <c r="D181" t="s">
         <v>43</v>
       </c>
       <c r="E181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G181" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-page-breaks-compact</v>
+        <v>additional-accessibility-information-page-breaks-descriptive</v>
       </c>
       <c r="D182" t="s">
         <v>43</v>
@@ -6969,34 +6970,34 @@
         <v>176</v>
       </c>
       <c r="F182" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G182" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-page-breaks-descriptive</v>
+        <v>additional-accessibility-information-tactile-graphics-compact</v>
       </c>
       <c r="D183" t="s">
         <v>43</v>
       </c>
       <c r="E183" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G183" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-tactile-graphics-compact</v>
+        <v>additional-accessibility-information-tactile-graphics-descriptive</v>
       </c>
       <c r="D184" t="s">
         <v>43</v>
@@ -7005,129 +7006,111 @@
         <v>183</v>
       </c>
       <c r="F184" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G184" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-tactile-graphics-descriptive</v>
+        <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D185" t="s">
         <v>43</v>
       </c>
       <c r="E185" t="s">
-        <v>183</v>
-      </c>
-      <c r="F185" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G185" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>additional-accessibility-information-aria-compact</v>
       </c>
       <c r="D186" t="s">
         <v>43</v>
       </c>
       <c r="E186" t="s">
-        <v>52</v>
+        <v>177</v>
+      </c>
+      <c r="F186" t="s">
+        <v>57</v>
       </c>
       <c r="G186" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-aria-compact</v>
+        <v>additional-accessibility-information-page-breaks-compact</v>
       </c>
       <c r="D187" t="s">
         <v>43</v>
       </c>
       <c r="E187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F187" t="s">
         <v>57</v>
       </c>
       <c r="G187" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-page-breaks-compact</v>
+        <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D188" t="s">
         <v>43</v>
       </c>
       <c r="E188" t="s">
-        <v>176</v>
-      </c>
-      <c r="F188" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G188" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>additional-accessibility-information-aria-descriptive</v>
       </c>
       <c r="D189" t="s">
         <v>43</v>
       </c>
       <c r="E189" t="s">
-        <v>52</v>
+        <v>177</v>
+      </c>
+      <c r="F189" t="s">
+        <v>56</v>
       </c>
       <c r="G189" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-aria-descriptive</v>
+        <v>additional-accessibility-information-page-breaks-descriptive</v>
       </c>
       <c r="D190" t="s">
         <v>43</v>
       </c>
       <c r="E190" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F190" t="s">
         <v>56</v>
       </c>
       <c r="G190" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>additional-accessibility-information-page-breaks-descriptive</v>
-      </c>
-      <c r="D191" t="s">
-        <v>43</v>
-      </c>
-      <c r="E191" t="s">
-        <v>176</v>
-      </c>
-      <c r="F191" t="s">
-        <v>56</v>
-      </c>
-      <c r="G191" t="s">
         <v>164</v>
       </c>
     </row>
